--- a/data/trans_camb/P42C_R2-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/P42C_R2-Habitat-trans_camb.xlsx
@@ -583,10 +583,10 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>3.177446125695328</v>
+        <v>2.848330955574538</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-0.1881315908306024</v>
+        <v>-0.3705596880352218</v>
       </c>
     </row>
     <row r="6">
@@ -597,10 +597,10 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>11.75209057843695</v>
+        <v>12.11227946876767</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>8.509707483406929</v>
+        <v>8.573123443314456</v>
       </c>
     </row>
     <row r="7">
@@ -625,10 +625,10 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>0.03757204441794747</v>
+        <v>0.03394457744791478</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>-0.001683298094864496</v>
+        <v>-0.004302305459692216</v>
       </c>
     </row>
     <row r="9">
@@ -639,10 +639,10 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>0.1466881596627304</v>
+        <v>0.1521027505105888</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>0.1077758157030429</v>
+        <v>0.1085055434858407</v>
       </c>
     </row>
     <row r="10">
@@ -660,7 +660,7 @@
         <v>13.78554383889347</v>
       </c>
       <c r="D10" s="5" t="n">
-        <v>6.174614355165097</v>
+        <v>6.174614355165087</v>
       </c>
     </row>
     <row r="11">
@@ -671,10 +671,10 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>9.094364266396303</v>
+        <v>9.42929044194187</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>1.307867926595949</v>
+        <v>1.794352199063648</v>
       </c>
     </row>
     <row r="12">
@@ -685,10 +685,10 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>17.94855832887465</v>
+        <v>17.82797058097767</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>10.69131901172483</v>
+        <v>10.75113868086638</v>
       </c>
     </row>
     <row r="13">
@@ -702,7 +702,7 @@
         <v>0.1905785897207994</v>
       </c>
       <c r="D13" s="6" t="n">
-        <v>0.08536110795695838</v>
+        <v>0.08536110795695823</v>
       </c>
     </row>
     <row r="14">
@@ -713,10 +713,10 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>0.1205108747101294</v>
+        <v>0.1240705531025991</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>0.01794243838700936</v>
+        <v>0.02438358120465816</v>
       </c>
     </row>
     <row r="15">
@@ -727,10 +727,10 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>0.2570918434280943</v>
+        <v>0.2578039431261501</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>0.1545167511896471</v>
+        <v>0.1550105304345326</v>
       </c>
     </row>
     <row r="16">
@@ -748,7 +748,7 @@
         <v>9.074280845825889</v>
       </c>
       <c r="D16" s="5" t="n">
-        <v>-6.710760310888098</v>
+        <v>-6.710760310888109</v>
       </c>
     </row>
     <row r="17">
@@ -759,10 +759,10 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>4.52376784548643</v>
+        <v>3.830641486882688</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-12.21412505261845</v>
+        <v>-11.77721495023349</v>
       </c>
     </row>
     <row r="18">
@@ -773,10 +773,10 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>13.98715753337721</v>
+        <v>13.76399219173546</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>-1.037940889551126</v>
+        <v>-0.8833524698524473</v>
       </c>
     </row>
     <row r="19">
@@ -790,7 +790,7 @@
         <v>0.1213741549388332</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>-0.08976059652217787</v>
+        <v>-0.08976059652217802</v>
       </c>
     </row>
     <row r="20">
@@ -801,10 +801,10 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>0.05833469507706113</v>
+        <v>0.04965772032353966</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>-0.1574111774924245</v>
+        <v>-0.1521775687903103</v>
       </c>
     </row>
     <row r="21">
@@ -815,10 +815,10 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>0.1934879312445381</v>
+        <v>0.1916169249674246</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>-0.01535237150786467</v>
+        <v>-0.01205547539948334</v>
       </c>
     </row>
     <row r="22">
@@ -847,10 +847,10 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-0.658593112571372</v>
+        <v>-0.6006888549154552</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-9.507815407705166</v>
+        <v>-8.830437518603615</v>
       </c>
     </row>
     <row r="24">
@@ -861,10 +861,10 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>7.604215195454274</v>
+        <v>7.656192045199325</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>-0.9381883359958116</v>
+        <v>-0.4013590264408182</v>
       </c>
     </row>
     <row r="25">
@@ -889,10 +889,10 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>-0.00825038666043186</v>
+        <v>-0.007284539170022892</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>-0.1208308450559596</v>
+        <v>-0.1119918898391566</v>
       </c>
     </row>
     <row r="27">
@@ -903,10 +903,10 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>0.1023348497727455</v>
+        <v>0.1060396631696984</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>-0.01284500758194018</v>
+        <v>-0.005317786239621431</v>
       </c>
     </row>
     <row r="28">
@@ -935,10 +935,10 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>6.231247164710942</v>
+        <v>6.399391663767131</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>-2.656709098766053</v>
+        <v>-2.543356158869987</v>
       </c>
     </row>
     <row r="30">
@@ -949,10 +949,10 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>10.61823414970162</v>
+        <v>10.79536720603247</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>1.846658763170562</v>
+        <v>2.069763759739539</v>
       </c>
     </row>
     <row r="31">
@@ -977,10 +977,10 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>0.07932290858184228</v>
+        <v>0.08236764385884023</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>-0.03403789834136281</v>
+        <v>-0.03296880670347015</v>
       </c>
     </row>
     <row r="33">
@@ -991,10 +991,10 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>0.1419971458612461</v>
+        <v>0.1443400332646251</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>0.02468668811122823</v>
+        <v>0.02748722796674787</v>
       </c>
     </row>
     <row r="34">
